--- a/IETwo/analysis/GroupBehavior.xlsx
+++ b/IETwo/analysis/GroupBehavior.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Participant</t>
   </si>
@@ -171,7 +171,76 @@
     <t>AH + VH</t>
   </si>
   <si>
-    <t>Race-Model (True = Violation)</t>
+    <t>P(AL + VL)</t>
+  </si>
+  <si>
+    <t>P(AVL) - [P(AL) + P(VL) - P(AL+VL)]</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>30% Stimuli</t>
+  </si>
+  <si>
+    <t>60% Stimuli</t>
+  </si>
+  <si>
+    <t>90% Stimuli</t>
+  </si>
+  <si>
+    <t>Stimuli Detectability Plot</t>
+  </si>
+  <si>
+    <t>Subject 1</t>
+  </si>
+  <si>
+    <t>Subject 2</t>
+  </si>
+  <si>
+    <t>Subject 3</t>
+  </si>
+  <si>
+    <t>Subject 4</t>
+  </si>
+  <si>
+    <t>Race-Model (30%)</t>
+  </si>
+  <si>
+    <t>Race-Model (60%)</t>
+  </si>
+  <si>
+    <t>P(AVM) - [P(AM) + P(VM) - P(AM+VM)]</t>
+  </si>
+  <si>
+    <t>P(AM + VM)</t>
+  </si>
+  <si>
+    <t>P(AH + VH)</t>
+  </si>
+  <si>
+    <t>P(AVH) - [P(AH) + P(VH) - P(AH+VH)]</t>
+  </si>
+  <si>
+    <t>Race-Model (90%)</t>
+  </si>
+  <si>
+    <t>Violation Inequalities 2: P(AB) - PA + PB - P(A)*P(B)</t>
+  </si>
+  <si>
+    <t>Violation Inequalities 1: P(AB) - PA + PB</t>
+  </si>
+  <si>
+    <t>RM 1</t>
   </si>
 </sst>
 </file>
@@ -207,8 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +294,3981 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stimuli</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Detectability</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15678937007874016"/>
+          <c:y val="0.12507044096123496"/>
+          <c:w val="0.65953915135608054"/>
+          <c:h val="0.70578981365647053"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Auditory</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.9075804776739433E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-7.476635514018691E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8265455444429766E-3"/>
+                  <c:y val="-4.9844236760124609E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$D$15:$D$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.8597571188784364E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11199666332152813</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2814197199811196E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$D$15:$D$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>5.8597571188784364E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.11199666332152813</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.2814197199811196E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30% Stimuli</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60% Stimuli</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90% Stimuli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.32965686274509826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67156862745098023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86274509803921573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Visual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-6.230529595015584E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8485646121051519E-17"/>
+                  <c:y val="-7.0612668743509827E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4132727722215325E-3"/>
+                  <c:y val="-2.1800974878140231E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$D$18:$D$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1124494382797086</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.10209149803754175</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4524269913198411E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$D$18:$D$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.1124494382797086</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.10209149803754175</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.4524269913198411E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30% Stimuli</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60% Stimuli</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90% Stimuli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.37622549019607854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54166666666666674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89215686274509776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Audiovisual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-9.5534787123572176E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8485646121051519E-17"/>
+                  <c:y val="-5.3997923156801658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$D$21:$D$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.14484132862114904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.3115752591873407E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6774460144075144E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$D$21:$D$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.14484132862114904</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.3115752591873407E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6774460144075144E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30% Stimuli</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60% Stimuli</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90% Stimuli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$C$21:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5453431372549018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77941176470588225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95588235294117674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="492701320"/>
+        <c:axId val="492698696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492701320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stimuli</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Intensity &amp; Type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492698696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492698696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Detectability (% Correct)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492701320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82188407699037624"/>
+          <c:y val="0.37376057159521725"/>
+          <c:w val="0.14099916544240054"/>
+          <c:h val="0.19285849268841396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Violation Inequality #2 </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30% Stimuli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$B$33:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Subject 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$C$33:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-4.9500192233755957E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.6020761245675268E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1314878892733089E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.0653594771242628E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6513900903498972E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FC5-4B71-A175-6365D29783F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>60% Stimuli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$B$33:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Subject 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$D$33:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-5.5074971164936537E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1666666666666852E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4145520953479835E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.12391868512110715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.0057189542483689E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FC5-4B71-A175-6365D29783F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>90% Stimuli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$B$33:$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Subject 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$E$33:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.5522875816993298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.3233371780079288E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4194540561316487E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0777585544021333E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.9315647827758529E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8FC5-4B71-A175-6365D29783F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494146488"/>
+        <c:axId val="494148456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494146488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494148456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494148456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Violation Inequality #2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.42204033822363E-2"/>
+              <c:y val="0.29937481027254792"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494146488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Violation Inequality  #1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30% Stimuli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Subject 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$C$46:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.1960784313725491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.191176470588236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18627450980392202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.8627450980392996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.16053921568627494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ACB-438C-9A70-88B187D3C341}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>60% Stimuli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Subject 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$D$46:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.32352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.6176470588235291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.50980392156862808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.28431372549019596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.43382352941176472</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5ACB-438C-9A70-88B187D3C341}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>90% Stimuli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Group N + RM Tests'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Subject 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Subject 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Subject 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Subject 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$E$46:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.75490196078431304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.96568627450980293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.96078431372548989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.51470588235294101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.79901960784313697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5ACB-438C-9A70-88B187D3C341}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="495890168"/>
+        <c:axId val="495891480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="495890168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495891480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495891480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Violation Inequality #1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495890168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>242886</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,19 +4534,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" customWidth="1"/>
+    <col min="17" max="17" width="31.85546875" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="34.42578125" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="37" customWidth="1"/>
+    <col min="26" max="26" width="39.7109375" customWidth="1"/>
+    <col min="27" max="27" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +4602,41 @@
       <c r="P1" t="s">
         <v>48</v>
       </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -588,12 +4679,56 @@
         <f>D2+G2</f>
         <v>1.7205882352941171</v>
       </c>
-      <c r="P2" t="b">
+      <c r="P2">
+        <f>B2*E2</f>
+        <v>0.1911284121491735</v>
+      </c>
+      <c r="Q2">
+        <f>C2*F2</f>
+        <v>0.26845444059976931</v>
+      </c>
+      <c r="R2">
+        <f>D2*G2</f>
+        <v>0.73937908496731974</v>
+      </c>
+      <c r="S2">
+        <f xml:space="preserve"> H2 - L2 + P2</f>
+        <v>-4.9500192233755957E-3</v>
+      </c>
+      <c r="T2">
+        <f xml:space="preserve"> I2 - M2 + Q2</f>
+        <v>-5.5074971164936537E-2</v>
+      </c>
+      <c r="U2">
+        <f xml:space="preserve"> J2 - N2 + R2</f>
+        <v>-1.5522875816993298E-2</v>
+      </c>
+      <c r="V2" t="b">
         <f>H2 &gt; (L2 - B2*E2)</f>
         <v>0</v>
       </c>
+      <c r="W2" t="b">
+        <f>I2 &gt; (M2 - C2*F2)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <f>J2 &gt; (N2 - D2*G2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>H2- L2</f>
+        <v>-0.1960784313725491</v>
+      </c>
+      <c r="Z2">
+        <f>I2- M2</f>
+        <v>-0.32352941176470584</v>
+      </c>
+      <c r="AA2">
+        <f>J2- N2</f>
+        <v>-0.75490196078431304</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -636,12 +4771,56 @@
         <f t="shared" ref="N3:N5" si="2">D3+G3</f>
         <v>1.955882352941176</v>
       </c>
-      <c r="P3" t="b">
-        <f t="shared" ref="P3:P10" si="3">H3 &gt; (L3 - B3*E3)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:R10" si="3">B3*E3</f>
+        <v>9.5155709342560735E-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="3"/>
+        <v>0.57598039215686225</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="3"/>
+        <v>0.956362937331795</v>
+      </c>
+      <c r="S3">
+        <f xml:space="preserve"> H3 - L3 + P3</f>
+        <v>-9.6020761245675268E-2</v>
+      </c>
+      <c r="T3">
+        <f xml:space="preserve"> I3 - M3 + Q3</f>
+        <v>-4.1666666666666852E-2</v>
+      </c>
+      <c r="U3">
+        <f xml:space="preserve"> J3 - N3 + R3</f>
+        <v>-9.3233371780079288E-3</v>
+      </c>
+      <c r="V3" t="b">
+        <f>H3 &gt; (L3 - B3*E3)</f>
         <v>0</v>
       </c>
+      <c r="W3" t="b">
+        <f>I3 &gt; (M3 - C3*F3)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <f>J3 &gt; (N3 - D3*G3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y10" si="4">H3- L3</f>
+        <v>-0.191176470588236</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z2:AA8" si="5">I3- M3</f>
+        <v>-0.6176470588235291</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="5"/>
+        <v>-0.96568627450980293</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -684,12 +4863,56 @@
         <f t="shared" si="2"/>
         <v>1.9509803921568629</v>
       </c>
-      <c r="P4" t="b">
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>0.26758938869665511</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>0.47565840061514825</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0.95136485966935824</v>
+      </c>
+      <c r="S4">
+        <f xml:space="preserve"> H4 - L4 + P4</f>
+        <v>8.1314878892733089E-2</v>
+      </c>
+      <c r="T4">
+        <f xml:space="preserve"> I4 - M4 + Q4</f>
+        <v>-3.4145520953479835E-2</v>
+      </c>
+      <c r="U4">
+        <f xml:space="preserve"> J4 - N4 + R4</f>
+        <v>-9.4194540561316487E-3</v>
+      </c>
+      <c r="V4" t="b">
         <f>H4 &gt; (L4 - B4*E4)</f>
         <v>1</v>
       </c>
+      <c r="W4" t="b">
+        <f>I4 &gt; (M4 - C4*F4)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <f>J4 &gt; (N4 - D4*G4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="4"/>
+        <v>-0.18627450980392202</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="5"/>
+        <v>-0.50980392156862808</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="5"/>
+        <v>-0.96078431372548989</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -732,12 +4955,56 @@
         <f t="shared" si="2"/>
         <v>1.392156862745098</v>
       </c>
-      <c r="P5" t="b">
+      <c r="P5">
         <f t="shared" si="3"/>
+        <v>1.7973856209150367E-2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>0.1603950403690888</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0.47392829680891968</v>
+      </c>
+      <c r="S5">
+        <f xml:space="preserve"> H5 - L5 + P5</f>
+        <v>-5.0653594771242628E-2</v>
+      </c>
+      <c r="T5">
+        <f xml:space="preserve"> I5 - M5 + Q5</f>
+        <v>-0.12391868512110715</v>
+      </c>
+      <c r="U5">
+        <f xml:space="preserve"> J5 - N5 + R5</f>
+        <v>-4.0777585544021333E-2</v>
+      </c>
+      <c r="V5" t="b">
+        <f>H5 &gt; (L5 - B5*E5)</f>
         <v>0</v>
       </c>
+      <c r="W5" t="b">
+        <f>I5 &gt; (M5 - C5*F5)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <f>J5 &gt; (N5 - D5*G5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>-6.8627450980392996E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="5"/>
+        <v>-0.28431372549019596</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="5"/>
+        <v>-0.51470588235294101</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -746,55 +5013,99 @@
         <v>0.32965686274509826</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:N7" si="4">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C7:N7" si="6">AVERAGE(C2:C5)</f>
         <v>0.67156862745098023</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86274509803921573</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.37622549019607854</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.54166666666666674</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.89215686274509776</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5453431372549018</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.77941176470588225</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.95588235294117674</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.70588235294117674</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.213235294117647</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7549019607843137</v>
       </c>
-      <c r="P7" t="b">
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>0.12402531478277597</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>0.36376633986928103</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0.76970396001537844</v>
+      </c>
+      <c r="S7">
+        <f xml:space="preserve"> H7 - L7 + P7</f>
+        <v>-3.6513900903498972E-2</v>
+      </c>
+      <c r="T7">
+        <f xml:space="preserve"> I7 - M7 + Q7</f>
+        <v>-7.0057189542483689E-2</v>
+      </c>
+      <c r="U7">
+        <f xml:space="preserve"> J7 - N7 + R7</f>
+        <v>-2.9315647827758529E-2</v>
+      </c>
+      <c r="V7" t="b">
         <f>H7 &gt; (L7 - B7*E7)</f>
         <v>0</v>
       </c>
+      <c r="W7" t="b">
+        <f>I7 &gt; (M7 - C7*F7)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" t="b">
+        <f>J7 &gt; (N7 - D7*G7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f>H7- L7</f>
+        <v>-0.16053921568627494</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="5"/>
+        <v>-0.43382352941176472</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>-0.79901960784313697</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -803,51 +5114,87 @@
         <v>0.11719514237756873</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:M8" si="5">STDEV(C2:C5)</f>
+        <f t="shared" ref="C8:J8" si="7">STDEV(C2:C5)</f>
         <v>0.22399332664305627</v>
       </c>
       <c r="D8">
+        <f t="shared" si="7"/>
+        <v>0.18562839439962239</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="7"/>
+        <v>0.2248988765594172</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="7"/>
+        <v>0.2041829960750835</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="7"/>
+        <v>8.9048539826396822E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
+        <v>0.28968265724229808</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>0.18623150518374681</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>5.3548920288150288E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:N8" si="8">STDEV(L2:L5)</f>
+        <v>0.33883862076049887</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>0.32986711836129373</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>0.26558194415882125</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>2.6357055858936152E-2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>4.5735628534804056E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>1.6529937471604871E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S10" si="9" xml:space="preserve"> H8 - L8 + P8</f>
+        <v>-2.2798907659264633E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T10" si="10" xml:space="preserve"> I8 - M8 + Q8</f>
+        <v>-9.7899984642742854E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U10" si="11" xml:space="preserve"> J8 - N8 + R8</f>
+        <v>-0.19550308639906611</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="4"/>
+        <v>-4.9155963518200785E-2</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="5"/>
-        <v>0.18562839439962239</v>
-      </c>
-      <c r="E8">
+        <v>-0.14363561317754692</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="5"/>
-        <v>0.2248988765594172</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="5"/>
-        <v>0.2041829960750835</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="5"/>
-        <v>8.9048539826396822E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="5"/>
-        <v>0.28968265724229808</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>0.18623150518374681</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>5.3548920288150288E-2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="K8:N8" si="6">STDEV(L2:L5)</f>
-        <v>0.33883862076049887</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>0.32986711836129373</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="6"/>
-        <v>0.26558194415882125</v>
+        <v>-0.21203302387067097</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -856,51 +5203,80 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J9" si="7">COUNT(C2:C5)</f>
+        <f t="shared" ref="C9:J9" si="12">COUNT(C2:C5)</f>
         <v>4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="F9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="G9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="H9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="K9:N9" si="8">COUNT(L2:L5)</f>
+        <f t="shared" ref="L9:N9" si="13">COUNT(L2:L5)</f>
         <v>4</v>
       </c>
       <c r="M9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -909,52 +5285,515 @@
         <v>5.8597571188784364E-2</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:J10" si="9">C8/SQRT(C9)</f>
+        <f t="shared" ref="C10:J10" si="14">C8/SQRT(C9)</f>
         <v>0.11199666332152813</v>
       </c>
       <c r="D10">
+        <f t="shared" si="14"/>
+        <v>9.2814197199811196E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="14"/>
+        <v>0.1124494382797086</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="14"/>
+        <v>0.10209149803754175</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="14"/>
+        <v>4.4524269913198411E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="14"/>
+        <v>0.14484132862114904</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="14"/>
+        <v>9.3115752591873407E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="14"/>
+        <v>2.6774460144075144E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10" si="15">L8/SQRT(L9)</f>
+        <v>0.16941931038024943</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10" si="16">M8/SQRT(M9)</f>
+        <v>0.16493355918064687</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10" si="17">N8/SQRT(N9)</f>
+        <v>0.13279097207941062</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>6.589263964734038E-3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>1.1433907133701014E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>4.1324843679012178E-3</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="9"/>
+        <v>-1.7988717794366355E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="10"/>
+        <v>-6.0383899455072443E-2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="11"/>
+        <v>-0.10188402756743427</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="4"/>
+        <v>-2.4577981759100392E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10" si="18">I10- M10</f>
+        <v>-7.1817806588773458E-2</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" ref="AA10" si="19">J10- N10</f>
+        <v>-0.10601651193533548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>0.32965686274509826</v>
+      </c>
+      <c r="D15">
+        <v>5.8597571188784364E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.40196078431372601</v>
+      </c>
+      <c r="F15">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="G15">
+        <v>0.42647058823529399</v>
+      </c>
+      <c r="H15">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>0.67156862745098023</v>
+      </c>
+      <c r="D16">
+        <v>0.11199666332152813</v>
+      </c>
+      <c r="E16">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="F16">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="G16">
+        <v>0.90686274509803899</v>
+      </c>
+      <c r="H16">
+        <v>0.36764705882352899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>0.86274509803921573</v>
+      </c>
+      <c r="D17">
         <v>9.2814197199811196E-2</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="9"/>
+      <c r="E17">
+        <v>0.88725490196078405</v>
+      </c>
+      <c r="F17">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="G17">
+        <v>0.99019607843137303</v>
+      </c>
+      <c r="H17">
+        <v>0.59313725490196101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>0.37622549019607854</v>
+      </c>
+      <c r="D18">
         <v>0.1124494382797086</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="9"/>
+      <c r="E18">
+        <v>0.47549019607843102</v>
+      </c>
+      <c r="F18">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="G18">
+        <v>0.62745098039215697</v>
+      </c>
+      <c r="H18">
+        <v>0.10784313725490199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="D19">
         <v>0.10209149803754175</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="9"/>
+      <c r="E19">
+        <v>0.37254901960784298</v>
+      </c>
+      <c r="F19">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="G19">
+        <v>0.52450980392156898</v>
+      </c>
+      <c r="H19">
+        <v>0.43627450980392202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>0.89215686274509776</v>
+      </c>
+      <c r="D20">
         <v>4.4524269913198411E-2</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="9"/>
+      <c r="E20">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="F20">
+        <v>0.97549019607843102</v>
+      </c>
+      <c r="G20">
+        <v>0.96078431372549</v>
+      </c>
+      <c r="H20">
+        <v>0.79901960784313697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>0.5453431372549018</v>
+      </c>
+      <c r="D21">
         <v>0.14484132862114904</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="9"/>
+      <c r="E21">
+        <v>0.68137254901960798</v>
+      </c>
+      <c r="F21">
+        <v>0.42647058823529399</v>
+      </c>
+      <c r="G21">
+        <v>0.86764705882352899</v>
+      </c>
+      <c r="H21">
+        <v>0.20588235294117599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>0.77941176470588225</v>
+      </c>
+      <c r="D22">
         <v>9.3115752591873407E-2</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="9"/>
+      <c r="E22">
+        <v>0.76960784313725505</v>
+      </c>
+      <c r="F22">
+        <v>0.90686274509803899</v>
+      </c>
+      <c r="G22">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="H22">
+        <v>0.51960784313725505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>0.95588235294117674</v>
+      </c>
+      <c r="D23">
         <v>2.6774460144075144E-2</v>
       </c>
-      <c r="L10">
-        <f t="shared" ref="L10" si="10">L8/SQRT(L9)</f>
-        <v>0.16941931038024943</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10" si="11">M8/SQRT(M9)</f>
-        <v>0.16493355918064687</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ref="N10" si="12">N8/SQRT(N9)</f>
-        <v>0.13279097207941062</v>
+      <c r="E23">
+        <v>0.96568627450980404</v>
+      </c>
+      <c r="F23">
+        <v>0.99019607843137303</v>
+      </c>
+      <c r="G23">
+        <v>0.99019607843137303</v>
+      </c>
+      <c r="H23">
+        <v>0.87745098039215697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>-4.9500192233755957E-3</v>
+      </c>
+      <c r="D33">
+        <v>-5.5074971164936537E-2</v>
+      </c>
+      <c r="E33">
+        <v>-1.5522875816993298E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>-9.6020761245675268E-2</v>
+      </c>
+      <c r="D34">
+        <v>-4.1666666666666852E-2</v>
+      </c>
+      <c r="E34">
+        <v>-9.3233371780079288E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>8.1314878892733089E-2</v>
+      </c>
+      <c r="D35">
+        <v>-3.4145520953479835E-2</v>
+      </c>
+      <c r="E35">
+        <v>-9.4194540561316487E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36">
+        <v>-5.0653594771242628E-2</v>
+      </c>
+      <c r="D36">
+        <v>-0.12391868512110715</v>
+      </c>
+      <c r="E36">
+        <v>-4.0777585544021333E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>-3.6513900903498972E-2</v>
+      </c>
+      <c r="D37">
+        <v>-7.0057189542483689E-2</v>
+      </c>
+      <c r="E37">
+        <v>-2.9315647827758529E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>-1.7988717794366355E-2</v>
+      </c>
+      <c r="D38">
+        <v>-6.0383899455072443E-2</v>
+      </c>
+      <c r="E38">
+        <v>-0.10188402756743427</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>-0.1960784313725491</v>
+      </c>
+      <c r="D46">
+        <v>-0.32352941176470584</v>
+      </c>
+      <c r="E46">
+        <v>-0.75490196078431304</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>-0.191176470588236</v>
+      </c>
+      <c r="D47">
+        <v>-0.6176470588235291</v>
+      </c>
+      <c r="E47">
+        <v>-0.96568627450980293</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>-0.18627450980392202</v>
+      </c>
+      <c r="D48">
+        <v>-0.50980392156862808</v>
+      </c>
+      <c r="E48">
+        <v>-0.96078431372548989</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>-6.8627450980392996E-2</v>
+      </c>
+      <c r="D49">
+        <v>-0.28431372549019596</v>
+      </c>
+      <c r="E49">
+        <v>-0.51470588235294101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>-0.16053921568627494</v>
+      </c>
+      <c r="D50">
+        <v>-0.43382352941176472</v>
+      </c>
+      <c r="E50">
+        <v>-0.79901960784313697</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1432,111 +6271,111 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <f>AVERAGE(B2:B5)</f>
+        <f t="shared" ref="B7:AB7" si="0">AVERAGE(B2:B5)</f>
         <v>0.37397892355322704</v>
       </c>
       <c r="C7">
-        <f>AVERAGE(C2:C5)</f>
+        <f t="shared" si="0"/>
         <v>0.67216400223980233</v>
       </c>
       <c r="D7">
-        <f>AVERAGE(D2:D5)</f>
+        <f t="shared" si="0"/>
         <v>0.88803693199923517</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(E2:E5)</f>
+        <f t="shared" si="0"/>
         <v>0.35614643867497242</v>
       </c>
       <c r="F7">
-        <f>AVERAGE(F2:F5)</f>
+        <f t="shared" si="0"/>
         <v>0.67761865790312403</v>
       </c>
       <c r="G7">
-        <f>AVERAGE(G2:G5)</f>
+        <f t="shared" si="0"/>
         <v>0.84604129530600125</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(H2:H5)</f>
+        <f t="shared" si="0"/>
         <v>0.35728094918567876</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(I2:I5)</f>
+        <f t="shared" si="0"/>
         <v>0.64873850561434321</v>
       </c>
       <c r="J7">
-        <f>AVERAGE(J2:J5)</f>
+        <f t="shared" si="0"/>
         <v>0.84657540795512476</v>
       </c>
       <c r="K7">
-        <f>AVERAGE(K2:K5)</f>
+        <f t="shared" si="0"/>
         <v>0.39989911218724755</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(L2:L5)</f>
+        <f t="shared" si="0"/>
         <v>0.56267796874556852</v>
       </c>
       <c r="M7">
-        <f>AVERAGE(M2:M5)</f>
+        <f t="shared" si="0"/>
         <v>0.90537367232479649</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(N2:N5)</f>
+        <f t="shared" si="0"/>
         <v>0.37444771191250081</v>
       </c>
       <c r="O7">
-        <f>AVERAGE(O2:O5)</f>
+        <f t="shared" si="0"/>
         <v>0.54337857275163781</v>
       </c>
       <c r="P7">
-        <f>AVERAGE(P2:P5)</f>
+        <f t="shared" si="0"/>
         <v>0.87880833925610058</v>
       </c>
       <c r="Q7">
-        <f>AVERAGE(Q2:Q5)</f>
+        <f t="shared" si="0"/>
         <v>0.35611238417413049</v>
       </c>
       <c r="R7">
-        <f>AVERAGE(R2:R5)</f>
+        <f t="shared" si="0"/>
         <v>0.51243446154884253</v>
       </c>
       <c r="S7">
-        <f>AVERAGE(S2:S5)</f>
+        <f t="shared" si="0"/>
         <v>0.90081922347102628</v>
       </c>
       <c r="T7">
-        <f>AVERAGE(T2:T5)</f>
+        <f t="shared" si="0"/>
         <v>0.5374063138769023</v>
       </c>
       <c r="U7">
-        <f>AVERAGE(U2:U5)</f>
+        <f t="shared" si="0"/>
         <v>0.82396673387096775</v>
       </c>
       <c r="V7">
-        <f>AVERAGE(V2:V5)</f>
+        <f t="shared" si="0"/>
         <v>0.96127239261567621</v>
       </c>
       <c r="W7">
-        <f>AVERAGE(W2:W5)</f>
+        <f t="shared" si="0"/>
         <v>0.54713901763082073</v>
       </c>
       <c r="X7">
-        <f>AVERAGE(X2:X5)</f>
+        <f t="shared" si="0"/>
         <v>0.7592998096674568</v>
       </c>
       <c r="Y7">
-        <f>AVERAGE(Y2:Y5)</f>
+        <f t="shared" si="0"/>
         <v>0.96257262323943671</v>
       </c>
       <c r="Z7">
-        <f>AVERAGE(Z2:Z5)</f>
+        <f t="shared" si="0"/>
         <v>0.54774220058110901</v>
       </c>
       <c r="AA7">
-        <f>AVERAGE(AA2:AA5)</f>
+        <f t="shared" si="0"/>
         <v>0.76109313046983873</v>
       </c>
       <c r="AB7">
-        <f>AVERAGE(AB2:AB5)</f>
+        <f t="shared" si="0"/>
         <v>0.94242424242424239</v>
       </c>
     </row>
@@ -1545,111 +6384,111 @@
         <v>33</v>
       </c>
       <c r="B8">
-        <f>STDEV(B2:B5)</f>
+        <f t="shared" ref="B8:AB8" si="1">STDEV(B2:B5)</f>
         <v>0.184510302365092</v>
       </c>
       <c r="C8">
-        <f>STDEV(C2:C5)</f>
+        <f t="shared" si="1"/>
         <v>0.21861120889933219</v>
       </c>
       <c r="D8">
-        <f>STDEV(D2:D5)</f>
+        <f t="shared" si="1"/>
         <v>0.14981391793874763</v>
       </c>
       <c r="E8">
-        <f>STDEV(E2:E5)</f>
+        <f t="shared" si="1"/>
         <v>0.12379897625017131</v>
       </c>
       <c r="F8">
-        <f>STDEV(F2:F5)</f>
+        <f t="shared" si="1"/>
         <v>0.2357562322970117</v>
       </c>
       <c r="G8">
-        <f>STDEV(G2:G5)</f>
+        <f t="shared" si="1"/>
         <v>0.16891130494374834</v>
       </c>
       <c r="H8">
-        <f>STDEV(H2:H5)</f>
+        <f t="shared" si="1"/>
         <v>0.1996773994627464</v>
       </c>
       <c r="I8">
-        <f>STDEV(I2:I5)</f>
+        <f t="shared" si="1"/>
         <v>0.18203041445311655</v>
       </c>
       <c r="J8">
-        <f>STDEV(J2:J5)</f>
+        <f t="shared" si="1"/>
         <v>0.20968385149554833</v>
       </c>
       <c r="K8">
-        <f>STDEV(K2:K5)</f>
+        <f t="shared" si="1"/>
         <v>0.23672985660527812</v>
       </c>
       <c r="L8">
-        <f>STDEV(L2:L5)</f>
+        <f t="shared" si="1"/>
         <v>0.21564708481487649</v>
       </c>
       <c r="M8">
-        <f>STDEV(M2:M5)</f>
+        <f t="shared" si="1"/>
         <v>7.8047389101856851E-2</v>
       </c>
       <c r="N8">
-        <f>STDEV(N2:N5)</f>
+        <f t="shared" si="1"/>
         <v>0.24306460992355189</v>
       </c>
       <c r="O8">
-        <f>STDEV(O2:O5)</f>
+        <f t="shared" si="1"/>
         <v>0.22495859020109882</v>
       </c>
       <c r="P8">
-        <f>STDEV(P2:P5)</f>
+        <f t="shared" si="1"/>
         <v>0.12413019896373473</v>
       </c>
       <c r="Q8">
-        <f>STDEV(Q2:Q5)</f>
+        <f t="shared" si="1"/>
         <v>0.22736751504157124</v>
       </c>
       <c r="R8">
-        <f>STDEV(R2:R5)</f>
+        <f t="shared" si="1"/>
         <v>0.1670187154000041</v>
       </c>
       <c r="S8">
-        <f>STDEV(S2:S5)</f>
+        <f t="shared" si="1"/>
         <v>6.2757753655156706E-2</v>
       </c>
       <c r="T8">
-        <f>STDEV(T2:T5)</f>
+        <f t="shared" si="1"/>
         <v>0.30242715085234623</v>
       </c>
       <c r="U8">
-        <f>STDEV(U2:U5)</f>
+        <f t="shared" si="1"/>
         <v>0.1960513888121527</v>
       </c>
       <c r="V8">
-        <f>STDEV(V2:V5)</f>
+        <f t="shared" si="1"/>
         <v>3.2919862082986404E-2</v>
       </c>
       <c r="W8">
-        <f>STDEV(W2:W5)</f>
+        <f t="shared" si="1"/>
         <v>0.35652525800752188</v>
       </c>
       <c r="X8">
-        <f>STDEV(X2:X5)</f>
+        <f t="shared" si="1"/>
         <v>0.18340072490039305</v>
       </c>
       <c r="Y8">
-        <f>STDEV(Y2:Y5)</f>
+        <f t="shared" si="1"/>
         <v>5.5495584926234375E-2</v>
       </c>
       <c r="Z8">
-        <f>STDEV(Z2:Z5)</f>
+        <f t="shared" si="1"/>
         <v>0.22129351938631045</v>
       </c>
       <c r="AA8">
-        <f>STDEV(AA2:AA5)</f>
+        <f t="shared" si="1"/>
         <v>0.17256786770343188</v>
       </c>
       <c r="AB8">
-        <f>STDEV(AB2:AB5)</f>
+        <f t="shared" si="1"/>
         <v>9.5217759864925006E-2</v>
       </c>
     </row>
@@ -1658,111 +6497,111 @@
         <v>34</v>
       </c>
       <c r="B9">
-        <f>COUNT(B2:B5)</f>
+        <f t="shared" ref="B9:AB9" si="2">COUNT(B2:B5)</f>
         <v>4</v>
       </c>
       <c r="C9">
-        <f>COUNT(C2:C5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D9">
-        <f>COUNT(D2:D5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E9">
-        <f>COUNT(E2:E5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F9">
-        <f>COUNT(F2:F5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G9">
-        <f>COUNT(G2:G5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H9">
-        <f>COUNT(H2:H5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I9">
-        <f>COUNT(I2:I5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J9">
-        <f>COUNT(J2:J5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K9">
-        <f>COUNT(K2:K5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L9">
-        <f>COUNT(L2:L5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M9">
-        <f>COUNT(M2:M5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N9">
-        <f>COUNT(N2:N5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O9">
-        <f>COUNT(O2:O5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P9">
-        <f>COUNT(P2:P5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q9">
-        <f>COUNT(Q2:Q5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="R9">
-        <f>COUNT(R2:R5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S9">
-        <f>COUNT(S2:S5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="T9">
-        <f>COUNT(T2:T5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U9">
-        <f>COUNT(U2:U5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="V9">
-        <f>COUNT(V2:V5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="W9">
-        <f>COUNT(W2:W5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="X9">
-        <f>COUNT(X2:X5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Y9">
-        <f>COUNT(Y2:Y5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Z9">
-        <f>COUNT(Z2:Z5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AA9">
-        <f>COUNT(AA2:AA5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AB9">
-        <f>COUNT(AB2:AB5)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1771,111 +6610,111 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <f>B8/SQRT(B9)</f>
+        <f t="shared" ref="B10:AB10" si="3">B8/SQRT(B9)</f>
         <v>9.2255151182546E-2</v>
       </c>
       <c r="C10">
-        <f>C8/SQRT(C9)</f>
+        <f t="shared" si="3"/>
         <v>0.1093056044496661</v>
       </c>
       <c r="D10">
-        <f>D8/SQRT(D9)</f>
+        <f t="shared" si="3"/>
         <v>7.4906958969373813E-2</v>
       </c>
       <c r="E10">
-        <f>E8/SQRT(E9)</f>
+        <f t="shared" si="3"/>
         <v>6.1899488125085653E-2</v>
       </c>
       <c r="F10">
-        <f>F8/SQRT(F9)</f>
+        <f t="shared" si="3"/>
         <v>0.11787811614850585</v>
       </c>
       <c r="G10">
-        <f>G8/SQRT(G9)</f>
+        <f t="shared" si="3"/>
         <v>8.4455652471874171E-2</v>
       </c>
       <c r="H10">
-        <f>H8/SQRT(H9)</f>
+        <f t="shared" si="3"/>
         <v>9.9838699731373201E-2</v>
       </c>
       <c r="I10">
-        <f>I8/SQRT(I9)</f>
+        <f t="shared" si="3"/>
         <v>9.1015207226558273E-2</v>
       </c>
       <c r="J10">
-        <f>J8/SQRT(J9)</f>
+        <f t="shared" si="3"/>
         <v>0.10484192574777416</v>
       </c>
       <c r="K10">
-        <f>K8/SQRT(K9)</f>
+        <f t="shared" si="3"/>
         <v>0.11836492830263906</v>
       </c>
       <c r="L10">
-        <f>L8/SQRT(L9)</f>
+        <f t="shared" si="3"/>
         <v>0.10782354240743824</v>
       </c>
       <c r="M10">
-        <f>M8/SQRT(M9)</f>
+        <f t="shared" si="3"/>
         <v>3.9023694550928426E-2</v>
       </c>
       <c r="N10">
-        <f>N8/SQRT(N9)</f>
+        <f t="shared" si="3"/>
         <v>0.12153230496177594</v>
       </c>
       <c r="O10">
-        <f>O8/SQRT(O9)</f>
+        <f t="shared" si="3"/>
         <v>0.11247929510054941</v>
       </c>
       <c r="P10">
-        <f>P8/SQRT(P9)</f>
+        <f t="shared" si="3"/>
         <v>6.2065099481867364E-2</v>
       </c>
       <c r="Q10">
-        <f>Q8/SQRT(Q9)</f>
+        <f t="shared" si="3"/>
         <v>0.11368375752078562</v>
       </c>
       <c r="R10">
-        <f>R8/SQRT(R9)</f>
+        <f t="shared" si="3"/>
         <v>8.3509357700002049E-2</v>
       </c>
       <c r="S10">
-        <f>S8/SQRT(S9)</f>
+        <f t="shared" si="3"/>
         <v>3.1378876827578353E-2</v>
       </c>
       <c r="T10">
-        <f>T8/SQRT(T9)</f>
+        <f t="shared" si="3"/>
         <v>0.15121357542617311</v>
       </c>
       <c r="U10">
-        <f>U8/SQRT(U9)</f>
+        <f t="shared" si="3"/>
         <v>9.802569440607635E-2</v>
       </c>
       <c r="V10">
-        <f>V8/SQRT(V9)</f>
+        <f t="shared" si="3"/>
         <v>1.6459931041493202E-2</v>
       </c>
       <c r="W10">
-        <f>W8/SQRT(W9)</f>
+        <f t="shared" si="3"/>
         <v>0.17826262900376094</v>
       </c>
       <c r="X10">
-        <f>X8/SQRT(X9)</f>
+        <f t="shared" si="3"/>
         <v>9.1700362450196526E-2</v>
       </c>
       <c r="Y10">
-        <f>Y8/SQRT(Y9)</f>
+        <f t="shared" si="3"/>
         <v>2.7747792463117187E-2</v>
       </c>
       <c r="Z10">
-        <f>Z8/SQRT(Z9)</f>
+        <f t="shared" si="3"/>
         <v>0.11064675969315522</v>
       </c>
       <c r="AA10">
-        <f>AA8/SQRT(AA9)</f>
+        <f t="shared" si="3"/>
         <v>8.6283933851715941E-2</v>
       </c>
       <c r="AB10">
-        <f>AB8/SQRT(AB9)</f>
+        <f t="shared" si="3"/>
         <v>4.7608879932462503E-2</v>
       </c>
     </row>

--- a/IETwo/analysis/GroupBehavior.xlsx
+++ b/IETwo/analysis/GroupBehavior.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Participant</t>
   </si>
@@ -175,18 +175,6 @@
   </si>
   <si>
     <t>P(AVL) - [P(AL) + P(VL) - P(AL+VL)]</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>30% Stimuli</t>
@@ -517,7 +505,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -746,7 +733,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1092,14 +1078,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Stimuli</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> Intensity &amp; Type</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1154,10 +1152,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1200,10 +1195,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1211,7 +1203,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Detectability (% Correct)</a:t>
                 </a:r>
               </a:p>
@@ -1233,10 +1229,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1265,10 +1258,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1317,10 +1307,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1363,7 +1350,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1391,10 +1378,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1424,10 +1408,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1503,7 +1484,7 @@
                   <c:v>-5.0653594771242628E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.6513900903498972E-2</c:v>
+                  <c:v>-1.7577374086890099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,7 +1553,7 @@
                   <c:v>-0.12391868512110715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.0057189542483689E-2</c:v>
+                  <c:v>-6.3701460976547594E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1622,7 @@
                   <c:v>-4.0777585544021333E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.9315647827758529E-2</c:v>
+                  <c:v>-1.8760813148788552E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1681,10 +1662,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1714,10 +1692,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1743,16 +1718,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1795,10 +1767,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1835,10 +1804,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1867,10 +1833,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1910,10 +1873,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1948,7 +1908,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1956,7 +1920,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2192,6 +2156,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'Group N + RM Tests'!$B$46:$B$50</c:f>
@@ -2547,6 +2529,313 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$C$38:$E$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.7844560544788519E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0533744911470087E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.4808057011769733E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Group N + RM Tests'!$C$38:$E$38</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.7844560544788519E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0533744911470087E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.4808057011769733E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Group N + RM Tests'!$C$37:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.7577374086890099E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.3701460976547594E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8760813148788552E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF25-4D3C-B7A3-1D61933E2084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="500295648"/>
+        <c:axId val="500294664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="500295648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500294664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="500294664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="500295648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2667,6 +2956,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4176,20 +4505,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>242886</xdr:colOff>
+      <xdr:colOff>309561</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4263,6 +5095,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>591910</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265339</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72117</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4536,8 +5398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,37 +5465,37 @@
         <v>48</v>
       </c>
       <c r="Q1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>49</v>
       </c>
       <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s">
         <v>64</v>
-      </c>
-      <c r="U1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" t="s">
-        <v>68</v>
       </c>
       <c r="Y1" t="s">
         <v>49</v>
       </c>
       <c r="Z1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -4696,23 +5558,23 @@
         <v>-4.9500192233755957E-3</v>
       </c>
       <c r="T2">
-        <f xml:space="preserve"> I2 - M2 + Q2</f>
+        <f t="shared" ref="S2:U5" si="0" xml:space="preserve"> I2 - M2 + Q2</f>
         <v>-5.5074971164936537E-2</v>
       </c>
       <c r="U2">
-        <f xml:space="preserve"> J2 - N2 + R2</f>
+        <f t="shared" si="0"/>
         <v>-1.5522875816993298E-2</v>
       </c>
       <c r="V2" t="b">
-        <f>H2 &gt; (L2 - B2*E2)</f>
+        <f t="shared" ref="V2:X5" si="1">H2 &gt; (L2 - B2*E2)</f>
         <v>0</v>
       </c>
       <c r="W2" t="b">
-        <f>I2 &gt; (M2 - C2*F2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <f>J2 &gt; (N2 - D2*G2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y2">
@@ -4760,27 +5622,27 @@
         <v>0.99019607843137303</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L5" si="0" xml:space="preserve"> B3 + E3</f>
+        <f t="shared" ref="L3:L5" si="2" xml:space="preserve"> B3 + E3</f>
         <v>0.61764705882352999</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M5" si="1">C3+F3</f>
+        <f t="shared" ref="M3:M5" si="3">C3+F3</f>
         <v>1.5245098039215681</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N5" si="2">D3+G3</f>
+        <f t="shared" ref="N3:N5" si="4">D3+G3</f>
         <v>1.955882352941176</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:R10" si="3">B3*E3</f>
+        <f t="shared" ref="P3:R5" si="5">B3*E3</f>
         <v>9.5155709342560735E-2</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57598039215686225</v>
       </c>
       <c r="R3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.956362937331795</v>
       </c>
       <c r="S3">
@@ -4788,35 +5650,35 @@
         <v>-9.6020761245675268E-2</v>
       </c>
       <c r="T3">
-        <f xml:space="preserve"> I3 - M3 + Q3</f>
+        <f t="shared" si="0"/>
         <v>-4.1666666666666852E-2</v>
       </c>
       <c r="U3">
-        <f xml:space="preserve"> J3 - N3 + R3</f>
+        <f t="shared" si="0"/>
         <v>-9.3233371780079288E-3</v>
       </c>
       <c r="V3" t="b">
-        <f>H3 &gt; (L3 - B3*E3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W3" t="b">
-        <f>I3 &gt; (M3 - C3*F3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X3" t="b">
-        <f>J3 &gt; (N3 - D3*G3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y10" si="4">H3- L3</f>
+        <f t="shared" ref="Y3:Y10" si="6">H3- L3</f>
         <v>-0.191176470588236</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z2:AA8" si="5">I3- M3</f>
+        <f t="shared" ref="Z3:AA8" si="7">I3- M3</f>
         <v>-0.6176470588235291</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.96568627450980293</v>
       </c>
     </row>
@@ -4852,63 +5714,63 @@
         <v>0.99019607843137303</v>
       </c>
       <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1.053921568627451</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>1.4313725490196081</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>1.9509803921568629</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>0.26758938869665511</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>0.47565840061514825</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="5"/>
+        <v>0.95136485966935824</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
-        <v>1.053921568627451</v>
-      </c>
-      <c r="M4">
+        <v>8.1314878892733089E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>-3.4145520953479835E-2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>-9.4194540561316487E-3</v>
+      </c>
+      <c r="V4" t="b">
         <f t="shared" si="1"/>
-        <v>1.4313725490196081</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
-        <v>1.9509803921568629</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>0.26758938869665511</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>0.47565840061514825</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="3"/>
-        <v>0.95136485966935824</v>
-      </c>
-      <c r="S4">
-        <f xml:space="preserve"> H4 - L4 + P4</f>
-        <v>8.1314878892733089E-2</v>
-      </c>
-      <c r="T4">
-        <f xml:space="preserve"> I4 - M4 + Q4</f>
-        <v>-3.4145520953479835E-2</v>
-      </c>
-      <c r="U4">
-        <f xml:space="preserve"> J4 - N4 + R4</f>
-        <v>-9.4194540561316487E-3</v>
-      </c>
-      <c r="V4" t="b">
-        <f>H4 &gt; (L4 - B4*E4)</f>
         <v>1</v>
       </c>
       <c r="W4" t="b">
-        <f>I4 &gt; (M4 - C4*F4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X4" t="b">
-        <f>J4 &gt; (N4 - D4*G4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.18627450980392202</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.50980392156862808</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.96078431372548989</v>
       </c>
     </row>
@@ -4944,27 +5806,27 @@
         <v>0.87745098039215697</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.27450980392156898</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.80392156862745101</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.392156862745098</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7973856209150367E-2</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1603950403690888</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47392829680891968</v>
       </c>
       <c r="S5">
@@ -4972,35 +5834,35 @@
         <v>-5.0653594771242628E-2</v>
       </c>
       <c r="T5">
-        <f xml:space="preserve"> I5 - M5 + Q5</f>
+        <f t="shared" si="0"/>
         <v>-0.12391868512110715</v>
       </c>
       <c r="U5">
-        <f xml:space="preserve"> J5 - N5 + R5</f>
+        <f t="shared" si="0"/>
         <v>-4.0777585544021333E-2</v>
       </c>
       <c r="V5" t="b">
-        <f>H5 &gt; (L5 - B5*E5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" t="b">
-        <f>I5 &gt; (M5 - C5*F5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" t="b">
-        <f>J5 &gt; (N5 - D5*G5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.8627450980392996E-2</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.28431372549019596</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.51470588235294101</v>
       </c>
     </row>
@@ -5013,72 +5875,72 @@
         <v>0.32965686274509826</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:N7" si="6">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C7:N7" si="8">AVERAGE(C2:C5)</f>
         <v>0.67156862745098023</v>
       </c>
       <c r="D7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.86274509803921573</v>
       </c>
       <c r="E7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37622549019607854</v>
       </c>
       <c r="F7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.54166666666666674</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.89215686274509776</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.5453431372549018</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.77941176470588225</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.95588235294117674</v>
       </c>
       <c r="L7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.70588235294117674</v>
       </c>
       <c r="M7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.213235294117647</v>
       </c>
       <c r="N7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7549019607843137</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
-        <v>0.12402531478277597</v>
+        <f>AVERAGE(P2:P5)</f>
+        <v>0.14296184159938494</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>0.36376633986928103</v>
+        <f>AVERAGE(Q2:Q5)</f>
+        <v>0.37012206843521717</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
-        <v>0.76970396001537844</v>
+        <f>AVERAGE(R2:R5)</f>
+        <v>0.78025879469434811</v>
       </c>
       <c r="S7">
-        <f xml:space="preserve"> H7 - L7 + P7</f>
-        <v>-3.6513900903498972E-2</v>
+        <f xml:space="preserve"> AVERAGE(S2:S5)</f>
+        <v>-1.7577374086890099E-2</v>
       </c>
       <c r="T7">
-        <f xml:space="preserve"> I7 - M7 + Q7</f>
-        <v>-7.0057189542483689E-2</v>
+        <f t="shared" ref="T7:U7" si="9" xml:space="preserve"> AVERAGE(T2:T5)</f>
+        <v>-6.3701460976547594E-2</v>
       </c>
       <c r="U7">
-        <f xml:space="preserve"> J7 - N7 + R7</f>
-        <v>-2.9315647827758529E-2</v>
+        <f t="shared" si="9"/>
+        <v>-1.8760813148788552E-2</v>
       </c>
       <c r="V7" t="b">
         <f>H7 &gt; (L7 - B7*E7)</f>
@@ -5097,11 +5959,11 @@
         <v>-0.16053921568627494</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.43382352941176472</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.79901960784313697</v>
       </c>
     </row>
@@ -5114,83 +5976,83 @@
         <v>0.11719514237756873</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:J8" si="7">STDEV(C2:C5)</f>
+        <f t="shared" ref="C8:J8" si="10">STDEV(C2:C5)</f>
         <v>0.22399332664305627</v>
       </c>
       <c r="D8">
+        <f t="shared" si="10"/>
+        <v>0.18562839439962239</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="10"/>
+        <v>0.2248988765594172</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="10"/>
+        <v>0.2041829960750835</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="10"/>
+        <v>8.9048539826396822E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="10"/>
+        <v>0.28968265724229808</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="10"/>
+        <v>0.18623150518374681</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="10"/>
+        <v>5.3548920288150288E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:N8" si="11">STDEV(L2:L5)</f>
+        <v>0.33883862076049887</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="11"/>
+        <v>0.32986711836129373</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="11"/>
+        <v>0.26558194415882125</v>
+      </c>
+      <c r="P8">
+        <f>STDEV(P2:P5)</f>
+        <v>0.10917793853350365</v>
+      </c>
+      <c r="Q8">
+        <f>STDEV(Q2:Q5)</f>
+        <v>0.1895936881039873</v>
+      </c>
+      <c r="R8">
+        <f>STDEV(R2:R5)</f>
+        <v>0.22788848086100033</v>
+      </c>
+      <c r="S8">
+        <f xml:space="preserve"> STDEV(S2:S5)</f>
+        <v>7.5689121089577038E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:U8" si="12" xml:space="preserve"> STDEV(T2:T5)</f>
+        <v>4.1067489822940173E-2</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="12"/>
+        <v>1.4961611402353947E-2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>-4.9155963518200785E-2</v>
+      </c>
+      <c r="Z8">
         <f t="shared" si="7"/>
-        <v>0.18562839439962239</v>
-      </c>
-      <c r="E8">
+        <v>-0.14363561317754692</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="7"/>
-        <v>0.2248988765594172</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="7"/>
-        <v>0.2041829960750835</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="7"/>
-        <v>8.9048539826396822E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="7"/>
-        <v>0.28968265724229808</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="7"/>
-        <v>0.18623150518374681</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="7"/>
-        <v>5.3548920288150288E-2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:N8" si="8">STDEV(L2:L5)</f>
-        <v>0.33883862076049887</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="8"/>
-        <v>0.32986711836129373</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="8"/>
-        <v>0.26558194415882125</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>2.6357055858936152E-2</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>4.5735628534804056E-2</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
-        <v>1.6529937471604871E-2</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ref="S8:S10" si="9" xml:space="preserve"> H8 - L8 + P8</f>
-        <v>-2.2798907659264633E-2</v>
-      </c>
-      <c r="T8">
-        <f t="shared" ref="T8:T10" si="10" xml:space="preserve"> I8 - M8 + Q8</f>
-        <v>-9.7899984642742854E-2</v>
-      </c>
-      <c r="U8">
-        <f t="shared" ref="U8:U10" si="11" xml:space="preserve"> J8 - N8 + R8</f>
-        <v>-0.19550308639906611</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="4"/>
-        <v>-4.9155963518200785E-2</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="5"/>
-        <v>-0.14363561317754692</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="5"/>
         <v>-0.21203302387067097</v>
       </c>
     </row>
@@ -5203,49 +6065,49 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J9" si="12">COUNT(C2:C5)</f>
+        <f t="shared" ref="C9:J9" si="13">COUNT(C2:C5)</f>
         <v>4</v>
       </c>
       <c r="D9">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9:N9" si="13">COUNT(L2:L5)</f>
-        <v>4</v>
-      </c>
-      <c r="M9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="N9">
+      <c r="E9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:N9" si="14">COUNT(L2:L5)</f>
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
       <c r="P9">
         <v>4</v>
       </c>
@@ -5259,11 +6121,11 @@
         <v>4</v>
       </c>
       <c r="T9">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="T9" si="15" xml:space="preserve"> I9 - M9 + Q9</f>
         <v>4</v>
       </c>
       <c r="U9">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="U9" si="16" xml:space="preserve"> J9 - N9 + R9</f>
         <v>4</v>
       </c>
       <c r="Y9">
@@ -5285,94 +6147,94 @@
         <v>5.8597571188784364E-2</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:J10" si="14">C8/SQRT(C9)</f>
+        <f t="shared" ref="C10:J10" si="17">C8/SQRT(C9)</f>
         <v>0.11199666332152813</v>
       </c>
       <c r="D10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.2814197199811196E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.1124494382797086</v>
       </c>
       <c r="F10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.10209149803754175</v>
       </c>
       <c r="G10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.4524269913198411E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.14484132862114904</v>
       </c>
       <c r="I10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.3115752591873407E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.6774460144075144E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10" si="15">L8/SQRT(L9)</f>
+        <f t="shared" ref="L10" si="18">L8/SQRT(L9)</f>
         <v>0.16941931038024943</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10" si="16">M8/SQRT(M9)</f>
+        <f t="shared" ref="M10" si="19">M8/SQRT(M9)</f>
         <v>0.16493355918064687</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10" si="17">N8/SQRT(N9)</f>
+        <f t="shared" ref="N10" si="20">N8/SQRT(N9)</f>
         <v>0.13279097207941062</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
-        <v>6.589263964734038E-3</v>
+        <f>P8/SQRT(4)</f>
+        <v>5.4588969266751823E-2</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>1.1433907133701014E-2</v>
+        <f>Q8/SQRT(4)</f>
+        <v>9.4796844051993651E-2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
-        <v>4.1324843679012178E-3</v>
+        <f>R8/SQRT(4)</f>
+        <v>0.11394424043050017</v>
       </c>
       <c r="S10">
-        <f t="shared" si="9"/>
-        <v>-1.7988717794366355E-2</v>
+        <f xml:space="preserve"> S8/SQRT(S9)</f>
+        <v>3.7844560544788519E-2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="10"/>
-        <v>-6.0383899455072443E-2</v>
+        <f t="shared" ref="T10" si="21" xml:space="preserve"> T8/SQRT(T9)</f>
+        <v>2.0533744911470087E-2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="11"/>
-        <v>-0.10188402756743427</v>
+        <f xml:space="preserve"> U8/SQRT(U9)</f>
+        <v>7.4808057011769733E-3</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.4577981759100392E-2</v>
       </c>
       <c r="Z10">
-        <f t="shared" ref="Z10" si="18">I10- M10</f>
+        <f t="shared" ref="Z10" si="22">I10- M10</f>
         <v>-7.1817806588773458E-2</v>
       </c>
       <c r="AA10">
-        <f t="shared" ref="AA10" si="19">J10- N10</f>
+        <f t="shared" ref="AA10" si="23">J10- N10</f>
         <v>-0.10601651193533548</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="Y12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -5397,7 +6259,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -5423,7 +6285,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
@@ -5449,7 +6311,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -5613,7 +6475,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5629,7 +6491,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>-4.9500192233755957E-3</v>
@@ -5643,7 +6505,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>-9.6020761245675268E-2</v>
@@ -5657,7 +6519,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>8.1314878892733089E-2</v>
@@ -5671,7 +6533,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>-5.0653594771242628E-2</v>
@@ -5688,13 +6550,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>-3.6513900903498972E-2</v>
+        <v>-1.7577374086890099E-2</v>
       </c>
       <c r="D37">
-        <v>-7.0057189542483689E-2</v>
+        <v>-6.3701460976547594E-2</v>
       </c>
       <c r="E37">
-        <v>-2.9315647827758529E-2</v>
+        <v>-1.8760813148788552E-2</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -5702,23 +6564,23 @@
         <v>32</v>
       </c>
       <c r="C38">
-        <v>-1.7988717794366355E-2</v>
+        <v>3.7844560544788519E-2</v>
       </c>
       <c r="D38">
-        <v>-6.0383899455072443E-2</v>
+        <v>2.0533744911470087E-2</v>
       </c>
       <c r="E38">
-        <v>-0.10188402756743427</v>
+        <v>7.4808057011769733E-3</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>-0.1960784313725491</v>
@@ -5732,7 +6594,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>-0.191176470588236</v>
@@ -5746,7 +6608,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>-0.18627450980392202</v>
@@ -5760,7 +6622,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>-6.8627450980392996E-2</v>
@@ -5789,6 +6651,15 @@
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>32</v>
+      </c>
+      <c r="C51">
+        <v>-1.7988717794366355E-2</v>
+      </c>
+      <c r="D51">
+        <v>-6.0383899455072443E-2</v>
+      </c>
+      <c r="E51">
+        <v>-0.10188402756743427</v>
       </c>
     </row>
   </sheetData>

--- a/IETwo/analysis/GroupBehavior.xlsx
+++ b/IETwo/analysis/GroupBehavior.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen52\Documents\GitHub\movingstims\IETwo\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhshaw\Documents\GitHub\movingstims\IETwo\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -408,12 +408,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -432,12 +432,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -456,12 +456,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -503,7 +503,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -598,7 +598,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C988-4FE1-88C3-A0B9DCE61C5E}"/>
             </c:ext>
@@ -636,12 +636,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -660,12 +660,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -684,12 +684,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -731,7 +731,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -826,7 +826,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C988-4FE1-88C3-A0B9DCE61C5E}"/>
             </c:ext>
@@ -864,12 +864,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -888,12 +888,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C988-4FE1-88C3-A0B9DCE61C5E}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-C988-4FE1-88C3-A0B9DCE61C5E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -935,7 +935,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="0"/>
@@ -1031,7 +1031,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C988-4FE1-88C3-A0B9DCE61C5E}"/>
             </c:ext>
@@ -1048,11 +1048,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="492701320"/>
-        <c:axId val="492698696"/>
+        <c:axId val="97467760"/>
+        <c:axId val="172660224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492701320"/>
+        <c:axId val="97467760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492698696"/>
+        <c:crossAx val="172660224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492698696"/>
+        <c:axId val="172660224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1268,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492701320"/>
+        <c:crossAx val="97467760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,7 +1356,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1489,7 +1489,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8FC5-4B71-A175-6365D29783F4}"/>
             </c:ext>
@@ -1558,7 +1558,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8FC5-4B71-A175-6365D29783F4}"/>
             </c:ext>
@@ -1627,7 +1627,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8FC5-4B71-A175-6365D29783F4}"/>
             </c:ext>
@@ -1643,11 +1643,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="494146488"/>
-        <c:axId val="494148456"/>
+        <c:axId val="171545192"/>
+        <c:axId val="171545584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="494146488"/>
+        <c:axId val="171545192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494148456"/>
+        <c:crossAx val="171545584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1742,7 +1742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="494148456"/>
+        <c:axId val="171545584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-0.1"/>
@@ -1843,7 +1843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494146488"/>
+        <c:crossAx val="171545192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1926,7 +1926,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2065,7 +2065,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5ACB-438C-9A70-88B187D3C341}"/>
             </c:ext>
@@ -2134,7 +2134,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5ACB-438C-9A70-88B187D3C341}"/>
             </c:ext>
@@ -2221,7 +2221,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5ACB-438C-9A70-88B187D3C341}"/>
             </c:ext>
@@ -2237,11 +2237,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="495890168"/>
-        <c:axId val="495891480"/>
+        <c:axId val="206907664"/>
+        <c:axId val="206908056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="495890168"/>
+        <c:axId val="206907664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495891480"/>
+        <c:crossAx val="206908056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2345,7 +2345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495891480"/>
+        <c:axId val="206908056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1"/>
@@ -2448,7 +2448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495890168"/>
+        <c:crossAx val="206907664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2530,7 +2530,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2666,7 +2666,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF25-4D3C-B7A3-1D61933E2084}"/>
             </c:ext>
@@ -2682,11 +2682,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="500295648"/>
-        <c:axId val="500294664"/>
+        <c:axId val="206908840"/>
+        <c:axId val="206909232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="500295648"/>
+        <c:axId val="206908840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500294664"/>
+        <c:crossAx val="206909232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2736,7 +2736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500294664"/>
+        <c:axId val="206909232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2787,7 +2787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500295648"/>
+        <c:crossAx val="206908840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
